--- a/va_facility_data_2025-02-20/Monticello VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Monticello%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Monticello VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Monticello%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R5c3a65f2de8d417ebb85ff6e961d9be3"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2e47d24fd48c4dc092731b7e270bc548"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R10d9a820e7334ee785bb7e8a20221279"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R9d7a3bd386d6493a98cd3031ca283ad2"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb54e7faca52c42b5a51f372a95e4c7b4"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7793fae39f6d4387af0fb1f80e86d1c9"/>
   </x:sheets>
 </x:workbook>
 </file>
